--- a/resources/TestFiles/TestFileDraco.xlsx
+++ b/resources/TestFiles/TestFileDraco.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manish9x\Git for Draco Nov 23\AccessandEntitlementsAutomation\resources\TestFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manish9x\Git for Draco 2\AccessandEntitlementsAutomation\resources\TestFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E6E0D3-A1B4-4038-9740-C4DBF650ADC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB67734-9D6E-44AD-951C-64532F873B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="218">
   <si>
     <t>Users</t>
   </si>
@@ -601,15 +601,6 @@
     <t>Geo</t>
   </si>
   <si>
-    <t>End Customer Account</t>
-  </si>
-  <si>
-    <t>MSVP L1</t>
-  </si>
-  <si>
-    <t>Quote Owner</t>
-  </si>
-  <si>
     <t>TC0001_DRACO</t>
   </si>
   <si>
@@ -623,13 +614,103 @@
   </si>
   <si>
     <t>Intel*1234</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Account Name</t>
+  </si>
+  <si>
+    <t>Mr.</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>Samsung Corp</t>
+  </si>
+  <si>
+    <t>TC0002_DRACO</t>
+  </si>
+  <si>
+    <t>TC0004_DRACO</t>
+  </si>
+  <si>
+    <t>DummyTest201</t>
+  </si>
+  <si>
+    <t>auto201@mailinator.com</t>
+  </si>
+  <si>
+    <t>TC0003_DRACO</t>
+  </si>
+  <si>
+    <t>DummyTest202</t>
+  </si>
+  <si>
+    <t>auto202@mailinator.com</t>
+  </si>
+  <si>
+    <t>TC0005_DRACO</t>
+  </si>
+  <si>
+    <t>Exportcheck</t>
+  </si>
+  <si>
+    <t>contact01</t>
+  </si>
+  <si>
+    <t>exportcontactchecktc5@mailinator.com</t>
+  </si>
+  <si>
+    <t>Automation_DRACO_Test</t>
+  </si>
+  <si>
+    <t>TC0006_DRACO</t>
+  </si>
+  <si>
+    <t>contact02</t>
+  </si>
+  <si>
+    <t>exportcontact2checktc5@mailinator.com</t>
+  </si>
+  <si>
+    <t>TC0007_DRACO</t>
+  </si>
+  <si>
+    <t>season branch Ahemdabad</t>
+  </si>
+  <si>
+    <t>employee8pg8@mailinator.com</t>
+  </si>
+  <si>
+    <t>employee8</t>
+  </si>
+  <si>
+    <t>pg8</t>
+  </si>
+  <si>
+    <t>TC0008_DRACO</t>
+  </si>
+  <si>
+    <t>testautomationuser01contactdracodnt01@mailinator.com</t>
+  </si>
+  <si>
+    <t>Testautomationuser01</t>
+  </si>
+  <si>
+    <t>contactdracodnt01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -663,12 +744,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -732,7 +807,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -798,7 +873,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2960,7 +3034,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2989,29 +3063,29 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="30"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>190</v>
+      <c r="C3" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>187</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -3028,24 +3102,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE4A502-95AD-4FD1-BDAA-46A877825265}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="topRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" style="12" customWidth="1"/>
-    <col min="3" max="3" width="19.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="12"/>
-    <col min="5" max="5" width="24.26953125" style="12" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="12"/>
+    <col min="2" max="2" width="8.6328125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="24.26953125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="50.26953125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.26953125" style="12" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>53</v>
       </c>
@@ -3053,28 +3128,217 @@
         <v>52</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.5">
-      <c r="A2" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>210</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{A0F38C3F-8DD2-4A5B-B0BE-A9A204DE5552}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{003F3375-0E0B-4FBE-897F-0D1C3190EF25}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{A4A063C3-A3F2-4A81-AFD7-A9360C1CCA35}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{1D011E03-1B83-48F4-BC9E-922C89469B8E}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{D07E9337-898B-4595-AAFC-FEF9016D1536}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{3C31350D-F3E5-4416-A82E-2C1F8B703053}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{D07FB25C-8E9E-4D89-A9FE-08AF4E75E138}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{F3CA88DC-5CF6-4A82-BDE4-6467C21716DF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/resources/TestFiles/TestFileDraco.xlsx
+++ b/resources/TestFiles/TestFileDraco.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manish9x\Git for Draco 2\AccessandEntitlementsAutomation\resources\TestFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB67734-9D6E-44AD-951C-64532F873B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0150C4-3B53-4780-8A2F-F3A2B5070587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="273">
   <si>
     <t>Users</t>
   </si>
@@ -704,6 +704,171 @@
   </si>
   <si>
     <t>contactdracodnt01</t>
+  </si>
+  <si>
+    <t>TC0009_DRACO</t>
+  </si>
+  <si>
+    <t>automation</t>
+  </si>
+  <si>
+    <t>TC0010_DRACO</t>
+  </si>
+  <si>
+    <t>TC0011_DRACO</t>
+  </si>
+  <si>
+    <t>Non Existing Email</t>
+  </si>
+  <si>
+    <t>First Name 2</t>
+  </si>
+  <si>
+    <t>Last Name 2</t>
+  </si>
+  <si>
+    <t>Account Type</t>
+  </si>
+  <si>
+    <t>Agency</t>
+  </si>
+  <si>
+    <t>ext201</t>
+  </si>
+  <si>
+    <t>ext202</t>
+  </si>
+  <si>
+    <t>automationext201@mailinator.com</t>
+  </si>
+  <si>
+    <t>automationext202@mailinator.com</t>
+  </si>
+  <si>
+    <t>TC0012_DRACO</t>
+  </si>
+  <si>
+    <t>TC0013_DRACO</t>
+  </si>
+  <si>
+    <t>automation01exttc13@mailinator.com</t>
+  </si>
+  <si>
+    <t>automation01</t>
+  </si>
+  <si>
+    <t>exttc13</t>
+  </si>
+  <si>
+    <t>ext303</t>
+  </si>
+  <si>
+    <t>ext304</t>
+  </si>
+  <si>
+    <t>automationext303@mailinator.com</t>
+  </si>
+  <si>
+    <t>automationext304@mailinator.com</t>
+  </si>
+  <si>
+    <t>nonexisting10</t>
+  </si>
+  <si>
+    <t>nonexisting11</t>
+  </si>
+  <si>
+    <t>automationnonexisting10@mailinator.com</t>
+  </si>
+  <si>
+    <t>automationnonexisting11@mailinator.com</t>
+  </si>
+  <si>
+    <t>nonexistingexttc13</t>
+  </si>
+  <si>
+    <t>automation01nonexistingexttc13@mailinator.com</t>
+  </si>
+  <si>
+    <t>TC0015_DRACO</t>
+  </si>
+  <si>
+    <t>automation02</t>
+  </si>
+  <si>
+    <t>automation02exttc13@mailinator.com</t>
+  </si>
+  <si>
+    <t>automation02nonexistingexttc13@modi.com</t>
+  </si>
+  <si>
+    <t>Account Name 2</t>
+  </si>
+  <si>
+    <t>Samsung Agency</t>
+  </si>
+  <si>
+    <t>TC0016_DRACO</t>
+  </si>
+  <si>
+    <t>TC0017_DRACO</t>
+  </si>
+  <si>
+    <t>exttc17</t>
+  </si>
+  <si>
+    <t>automationexttc17@mailinator.com</t>
+  </si>
+  <si>
+    <t>nonexistingexttc17</t>
+  </si>
+  <si>
+    <t>Corporate</t>
+  </si>
+  <si>
+    <t>TC0018_DRACO</t>
+  </si>
+  <si>
+    <t>exttc18</t>
+  </si>
+  <si>
+    <t>automation41nonexistingexttc17@mailinator.com</t>
+  </si>
+  <si>
+    <t>automation41</t>
+  </si>
+  <si>
+    <t>automation18</t>
+  </si>
+  <si>
+    <t>automation18exttc18@mailinator.com</t>
+  </si>
+  <si>
+    <t>TC0014_DRACO</t>
+  </si>
+  <si>
+    <t>exttc14</t>
+  </si>
+  <si>
+    <t>automationexttc14@mailinator.com</t>
+  </si>
+  <si>
+    <t>automationnonexisting14@mailinator.com</t>
+  </si>
+  <si>
+    <t>nonexisting14</t>
+  </si>
+  <si>
+    <t>automationnonexistingexttc16@cream.com</t>
+  </si>
+  <si>
+    <t>nonexistingexttc16</t>
+  </si>
+  <si>
+    <t>Account Type 2</t>
+  </si>
+  <si>
+    <t>Account Name 3</t>
   </si>
 </sst>
 </file>
@@ -3034,7 +3199,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3102,11 +3267,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE4A502-95AD-4FD1-BDAA-46A877825265}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G9" sqref="G9"/>
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3117,10 +3282,14 @@
     <col min="4" max="5" width="24.26953125" style="12" customWidth="1"/>
     <col min="6" max="6" width="50.26953125" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.26953125" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="12"/>
+    <col min="8" max="8" width="43.26953125" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="24.26953125" style="12" customWidth="1"/>
+    <col min="12" max="12" width="27.36328125" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="24.26953125" style="12" customWidth="1"/>
+    <col min="15" max="16384" width="8.7265625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>53</v>
       </c>
@@ -3142,8 +3311,29 @@
       <c r="G1" s="10" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>183</v>
       </c>
@@ -3165,8 +3355,15 @@
       <c r="G2" s="2" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2" s="3"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>194</v>
       </c>
@@ -3188,8 +3385,15 @@
       <c r="G3" s="2" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H3" s="3"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>195</v>
       </c>
@@ -3211,8 +3415,15 @@
       <c r="G4" s="2" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H4" s="3"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>198</v>
       </c>
@@ -3234,8 +3445,15 @@
       <c r="G5" s="2" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H5" s="3"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>201</v>
       </c>
@@ -3257,8 +3475,15 @@
       <c r="G6" s="2" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H6" s="3"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>206</v>
       </c>
@@ -3280,8 +3505,15 @@
       <c r="G7" s="2" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H7" s="3"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>209</v>
       </c>
@@ -3303,8 +3535,15 @@
       <c r="G8" s="2" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H8" s="3"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>214</v>
       </c>
@@ -3326,6 +3565,387 @@
       <c r="G9" s="2" t="s">
         <v>210</v>
       </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3337,8 +3957,25 @@
     <hyperlink ref="F7" r:id="rId6" xr:uid="{3C31350D-F3E5-4416-A82E-2C1F8B703053}"/>
     <hyperlink ref="F8" r:id="rId7" xr:uid="{D07FB25C-8E9E-4D89-A9FE-08AF4E75E138}"/>
     <hyperlink ref="F9" r:id="rId8" xr:uid="{F3CA88DC-5CF6-4A82-BDE4-6467C21716DF}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{7D6E0C57-FA7B-402C-B65D-F96FBB9F3E2C}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{09198764-D21C-409F-931A-B3A793E82926}"/>
+    <hyperlink ref="F12" r:id="rId11" xr:uid="{BD7E40A0-8F54-4067-BB87-69800194E50C}"/>
+    <hyperlink ref="H12" r:id="rId12" xr:uid="{AD9A1001-D204-4573-AA15-29F0747FEEBD}"/>
+    <hyperlink ref="F13" r:id="rId13" xr:uid="{AFBD5D07-D274-42A3-921E-09F8ADEBC371}"/>
+    <hyperlink ref="H13" r:id="rId14" xr:uid="{CBBBFA45-4D76-416F-BDE5-B9B4706F94C9}"/>
+    <hyperlink ref="F14" r:id="rId15" xr:uid="{650192EF-5F40-471A-897A-3541B9A389AD}"/>
+    <hyperlink ref="H14" r:id="rId16" xr:uid="{2CDFED2A-5CBF-4C39-87D0-6CAD53892994}"/>
+    <hyperlink ref="F16" r:id="rId17" xr:uid="{FB54A06C-30E3-4372-9304-54A30991E1EB}"/>
+    <hyperlink ref="H16" r:id="rId18" xr:uid="{C9EDE456-BDFE-4C93-88C9-33BDAE119A49}"/>
+    <hyperlink ref="F17" r:id="rId19" xr:uid="{3ED0E95F-3803-46A7-89EB-E09BBA8E309E}"/>
+    <hyperlink ref="F18" r:id="rId20" xr:uid="{1915ADDD-E0AA-4EDF-BFA2-3B67EEB7DAC8}"/>
+    <hyperlink ref="H18" r:id="rId21" xr:uid="{676479B4-BCB5-4F2E-BEE7-9CA8EC410B98}"/>
+    <hyperlink ref="F19" r:id="rId22" xr:uid="{DD7ECCF9-CE3C-4C34-9729-40F3A6F5D4BF}"/>
+    <hyperlink ref="F15" r:id="rId23" xr:uid="{332B3AFE-6B38-4382-A375-4C2003EF6166}"/>
+    <hyperlink ref="H15" r:id="rId24" xr:uid="{93857D19-0431-42BF-87C2-35743ECD0740}"/>
+    <hyperlink ref="H17" r:id="rId25" xr:uid="{77683C9B-7616-4541-9DA9-5C3DCED6A999}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>
--- a/resources/TestFiles/TestFileDraco.xlsx
+++ b/resources/TestFiles/TestFileDraco.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manish9x\Git for Draco 2\AccessandEntitlementsAutomation\resources\TestFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asuhassx\giteum\AccessandEntitlementsAutomation\resources\TestFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0150C4-3B53-4780-8A2F-F3A2B5070587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A60AD00-5573-47FB-883F-90431E19AA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="257">
   <si>
     <t>Users</t>
   </si>
@@ -610,272 +610,224 @@
     <t>User1 DEVINT</t>
   </si>
   <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Account Name</t>
+  </si>
+  <si>
+    <t>Mr.</t>
+  </si>
+  <si>
+    <t>Samsung Corp</t>
+  </si>
+  <si>
+    <t>TC0002_DRACO</t>
+  </si>
+  <si>
+    <t>TC0004_DRACO</t>
+  </si>
+  <si>
+    <t>TC0003_DRACO</t>
+  </si>
+  <si>
+    <t>TC0005_DRACO</t>
+  </si>
+  <si>
+    <t>Automation_DRACO_Test</t>
+  </si>
+  <si>
+    <t>TC0006_DRACO</t>
+  </si>
+  <si>
+    <t>TC0007_DRACO</t>
+  </si>
+  <si>
+    <t>TC0008_DRACO</t>
+  </si>
+  <si>
+    <t>TC0009_DRACO</t>
+  </si>
+  <si>
+    <t>TC0010_DRACO</t>
+  </si>
+  <si>
+    <t>TC0011_DRACO</t>
+  </si>
+  <si>
+    <t>Non Existing Email</t>
+  </si>
+  <si>
+    <t>First Name 2</t>
+  </si>
+  <si>
+    <t>Last Name 2</t>
+  </si>
+  <si>
+    <t>Account Type</t>
+  </si>
+  <si>
+    <t>TC0012_DRACO</t>
+  </si>
+  <si>
+    <t>TC0013_DRACO</t>
+  </si>
+  <si>
+    <t>TC0015_DRACO</t>
+  </si>
+  <si>
+    <t>Account Name 2</t>
+  </si>
+  <si>
+    <t>TC0016_DRACO</t>
+  </si>
+  <si>
+    <t>TC0017_DRACO</t>
+  </si>
+  <si>
+    <t>Corporate</t>
+  </si>
+  <si>
+    <t>TC0018_DRACO</t>
+  </si>
+  <si>
+    <t>TC0014_DRACO</t>
+  </si>
+  <si>
+    <t>Account Type 2</t>
+  </si>
+  <si>
+    <t>Account Name 3</t>
+  </si>
+  <si>
+    <t>TC0019_DRACO</t>
+  </si>
+  <si>
+    <t>Existing Email</t>
+  </si>
+  <si>
+    <t>TC0020_DRACO</t>
+  </si>
+  <si>
     <t>12004853@intel.com.crm.crmqa3</t>
   </si>
   <si>
     <t>Intel*1234</t>
   </si>
   <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Account Name</t>
-  </si>
-  <si>
-    <t>Mr.</t>
-  </si>
-  <si>
-    <t>Automation</t>
-  </si>
-  <si>
-    <t>Samsung Corp</t>
-  </si>
-  <si>
-    <t>TC0002_DRACO</t>
-  </si>
-  <si>
-    <t>TC0004_DRACO</t>
-  </si>
-  <si>
-    <t>DummyTest201</t>
-  </si>
-  <si>
-    <t>auto201@mailinator.com</t>
-  </si>
-  <si>
-    <t>TC0003_DRACO</t>
-  </si>
-  <si>
-    <t>DummyTest202</t>
-  </si>
-  <si>
-    <t>auto202@mailinator.com</t>
-  </si>
-  <si>
-    <t>TC0005_DRACO</t>
-  </si>
-  <si>
-    <t>Exportcheck</t>
-  </si>
-  <si>
-    <t>contact01</t>
-  </si>
-  <si>
-    <t>exportcontactchecktc5@mailinator.com</t>
-  </si>
-  <si>
-    <t>Automation_DRACO_Test</t>
-  </si>
-  <si>
-    <t>TC0006_DRACO</t>
-  </si>
-  <si>
-    <t>contact02</t>
-  </si>
-  <si>
-    <t>exportcontact2checktc5@mailinator.com</t>
-  </si>
-  <si>
-    <t>TC0007_DRACO</t>
-  </si>
-  <si>
-    <t>season branch Ahemdabad</t>
-  </si>
-  <si>
-    <t>employee8pg8@mailinator.com</t>
-  </si>
-  <si>
-    <t>employee8</t>
-  </si>
-  <si>
-    <t>pg8</t>
-  </si>
-  <si>
-    <t>TC0008_DRACO</t>
-  </si>
-  <si>
-    <t>testautomationuser01contactdracodnt01@mailinator.com</t>
-  </si>
-  <si>
-    <t>Testautomationuser01</t>
-  </si>
-  <si>
-    <t>contactdracodnt01</t>
-  </si>
-  <si>
-    <t>TC0009_DRACO</t>
-  </si>
-  <si>
-    <t>automation</t>
-  </si>
-  <si>
-    <t>TC0010_DRACO</t>
-  </si>
-  <si>
-    <t>TC0011_DRACO</t>
-  </si>
-  <si>
-    <t>Non Existing Email</t>
-  </si>
-  <si>
-    <t>First Name 2</t>
-  </si>
-  <si>
-    <t>Last Name 2</t>
-  </si>
-  <si>
-    <t>Account Type</t>
-  </si>
-  <si>
-    <t>Agency</t>
-  </si>
-  <si>
-    <t>ext201</t>
-  </si>
-  <si>
-    <t>ext202</t>
-  </si>
-  <si>
-    <t>automationext201@mailinator.com</t>
-  </si>
-  <si>
-    <t>automationext202@mailinator.com</t>
-  </si>
-  <si>
-    <t>TC0012_DRACO</t>
-  </si>
-  <si>
-    <t>TC0013_DRACO</t>
-  </si>
-  <si>
-    <t>automation01exttc13@mailinator.com</t>
-  </si>
-  <si>
-    <t>automation01</t>
-  </si>
-  <si>
-    <t>exttc13</t>
-  </si>
-  <si>
-    <t>ext303</t>
-  </si>
-  <si>
-    <t>ext304</t>
-  </si>
-  <si>
-    <t>automationext303@mailinator.com</t>
-  </si>
-  <si>
-    <t>automationext304@mailinator.com</t>
-  </si>
-  <si>
-    <t>nonexisting10</t>
-  </si>
-  <si>
-    <t>nonexisting11</t>
-  </si>
-  <si>
-    <t>automationnonexisting10@mailinator.com</t>
-  </si>
-  <si>
-    <t>automationnonexisting11@mailinator.com</t>
-  </si>
-  <si>
-    <t>nonexistingexttc13</t>
-  </si>
-  <si>
-    <t>automation01nonexistingexttc13@mailinator.com</t>
-  </si>
-  <si>
-    <t>TC0015_DRACO</t>
-  </si>
-  <si>
-    <t>automation02</t>
-  </si>
-  <si>
-    <t>automation02exttc13@mailinator.com</t>
-  </si>
-  <si>
-    <t>automation02nonexistingexttc13@modi.com</t>
-  </si>
-  <si>
-    <t>Account Name 2</t>
-  </si>
-  <si>
-    <t>Samsung Agency</t>
-  </si>
-  <si>
-    <t>TC0016_DRACO</t>
-  </si>
-  <si>
-    <t>TC0017_DRACO</t>
-  </si>
-  <si>
-    <t>exttc17</t>
-  </si>
-  <si>
-    <t>automationexttc17@mailinator.com</t>
-  </si>
-  <si>
-    <t>nonexistingexttc17</t>
-  </si>
-  <si>
-    <t>Corporate</t>
-  </si>
-  <si>
-    <t>TC0018_DRACO</t>
-  </si>
-  <si>
-    <t>exttc18</t>
-  </si>
-  <si>
-    <t>automation41nonexistingexttc17@mailinator.com</t>
-  </si>
-  <si>
-    <t>automation41</t>
-  </si>
-  <si>
-    <t>automation18</t>
-  </si>
-  <si>
-    <t>automation18exttc18@mailinator.com</t>
-  </si>
-  <si>
-    <t>TC0014_DRACO</t>
-  </si>
-  <si>
-    <t>exttc14</t>
-  </si>
-  <si>
-    <t>automationexttc14@mailinator.com</t>
-  </si>
-  <si>
-    <t>automationnonexisting14@mailinator.com</t>
-  </si>
-  <si>
-    <t>nonexisting14</t>
-  </si>
-  <si>
-    <t>automationnonexistingexttc16@cream.com</t>
-  </si>
-  <si>
-    <t>nonexistingexttc16</t>
-  </si>
-  <si>
-    <t>Account Type 2</t>
-  </si>
-  <si>
-    <t>Account Name 3</t>
+    <t>Automationccprun01</t>
+  </si>
+  <si>
+    <t>User01</t>
+  </si>
+  <si>
+    <t>Automationexistingcontact</t>
+  </si>
+  <si>
+    <t>testingaande</t>
+  </si>
+  <si>
+    <t>automationexistingcontact001@mailinator.com</t>
+  </si>
+  <si>
+    <t>AutomationPSGcontact001</t>
+  </si>
+  <si>
+    <t>testexistingande</t>
+  </si>
+  <si>
+    <t>automationpsgcontact001@mailinator.com</t>
+  </si>
+  <si>
+    <t>AutomationPSGrun01</t>
+  </si>
+  <si>
+    <t>Automationeumccp01</t>
+  </si>
+  <si>
+    <t>Usereum01</t>
+  </si>
+  <si>
+    <t>nonexistingemailfirsteum87@mailinator.com</t>
+  </si>
+  <si>
+    <t>EumGAcontact01</t>
+  </si>
+  <si>
+    <t>CCPextuser01</t>
+  </si>
+  <si>
+    <t>Automationeumccp02</t>
+  </si>
+  <si>
+    <t>Usereum02</t>
+  </si>
+  <si>
+    <t>test_qa0922@mailinator.com</t>
+  </si>
+  <si>
+    <t>Automationeumccp04</t>
+  </si>
+  <si>
+    <t>Usereum03</t>
+  </si>
+  <si>
+    <t>Usereum04</t>
+  </si>
+  <si>
+    <t>nonexistingemailfirsteum885@mailinator.com</t>
+  </si>
+  <si>
+    <t>EumGAcontact02</t>
+  </si>
+  <si>
+    <t>CCPextuser02</t>
+  </si>
+  <si>
+    <t>TC0021_DRACO</t>
+  </si>
+  <si>
+    <t>TC0022_DRACO</t>
+  </si>
+  <si>
+    <t>TC0023_DRACO</t>
+  </si>
+  <si>
+    <t>TC0024_DRACO</t>
+  </si>
+  <si>
+    <t>TC0025_DRACO</t>
+  </si>
+  <si>
+    <t>AutomationMPdraco</t>
+  </si>
+  <si>
+    <t>Useripa01</t>
+  </si>
+  <si>
+    <t>Season Branch Pune</t>
+  </si>
+  <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t>testcontactinvite43@ipa.com</t>
+  </si>
+  <si>
+    <t>AutomationMPdraco2</t>
+  </si>
+  <si>
+    <t>Useripa02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -910,6 +862,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF262626"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -931,7 +896,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -967,12 +932,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1042,6 +1018,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3247,31 +3233,28 @@
         <v>18</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="E3" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E3" xr:uid="{B30C7179-49C6-4CE4-9EE3-050BEF570246}"/>
   <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{17AAB3BA-1511-4C03-A49A-C595A54450F1}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE4A502-95AD-4FD1-BDAA-46A877825265}">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3286,10 +3269,12 @@
     <col min="9" max="11" width="24.26953125" style="12" customWidth="1"/>
     <col min="12" max="12" width="27.36328125" style="12" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="24.26953125" style="12" customWidth="1"/>
-    <col min="15" max="16384" width="8.7265625" style="12"/>
+    <col min="15" max="15" width="36.54296875" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.26953125" style="12" customWidth="1"/>
+    <col min="17" max="16384" width="8.7265625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>53</v>
       </c>
@@ -3300,40 +3285,46 @@
         <v>22</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>271</v>
+        <v>215</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+        <v>216</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="P1" s="34" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>183</v>
       </c>
@@ -3341,641 +3332,429 @@
         <v>184</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="F2" s="12" t="str">
+        <f>_xlfn.CONCAT(D2,E2,"@mailinator.com")</f>
+        <v>Automationccprun01User01@mailinator.com</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>194</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>184</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D3" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
         <v>192</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>195</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>184</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="G4" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="F4" s="12" t="str">
+        <f>_xlfn.CONCAT(D4,E4,"@mailinator.com")</f>
+        <v>AutomationPSGrun01User01@mailinator.com</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>198</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>184</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>184</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>184</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>184</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>184</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>184</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="F10" s="12" t="str">
+        <f>_xlfn.CONCAT(D10,E10,"@mailinator.com")</f>
+        <v>Automationeumccp01Usereum01@mailinator.com</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>184</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="F11" s="12" t="str">
+        <f>_xlfn.CONCAT(D11,E11,"@mailinator.com")</f>
+        <v>Automationeumccp02Usereum02@mailinator.com</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>184</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="J12" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="F12" s="12" t="str">
+        <f t="shared" ref="F12:F13" si="0">_xlfn.CONCAT(D12,E12,"@mailinator.com")</f>
+        <v>Usereum03@mailinator.com</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>184</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="F13" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="H13" s="3" t="s">
+      <c r="E13" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="F13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Automationeumccp04Usereum04@mailinator.com</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="I13" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J13" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>184</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>264</v>
+        <v>214</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>184</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>184</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>252</v>
+        <v>210</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>184</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>184</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>258</v>
+        <v>213</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>184</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22" s="33" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A23" s="33" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24" s="33" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="20" x14ac:dyDescent="0.35">
+      <c r="A25" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="F25" s="12" t="str">
+        <f>_xlfn.CONCAT(D25,E25,"@mailinator.com")</f>
+        <v>AutomationMPdraco2Useripa02@mailinator.com</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="P25" s="35" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="30" x14ac:dyDescent="0.35">
+      <c r="A26" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="F26" s="12" t="str">
+        <f>_xlfn.CONCAT(D26,E26,"@mailinator.com")</f>
+        <v>AutomationMPdracoUseripa01@mailinator.com</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="P26" s="35" t="s">
+        <v>254</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{A0F38C3F-8DD2-4A5B-B0BE-A9A204DE5552}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{003F3375-0E0B-4FBE-897F-0D1C3190EF25}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{A4A063C3-A3F2-4A81-AFD7-A9360C1CCA35}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{1D011E03-1B83-48F4-BC9E-922C89469B8E}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{D07E9337-898B-4595-AAFC-FEF9016D1536}"/>
-    <hyperlink ref="F7" r:id="rId6" xr:uid="{3C31350D-F3E5-4416-A82E-2C1F8B703053}"/>
-    <hyperlink ref="F8" r:id="rId7" xr:uid="{D07FB25C-8E9E-4D89-A9FE-08AF4E75E138}"/>
-    <hyperlink ref="F9" r:id="rId8" xr:uid="{F3CA88DC-5CF6-4A82-BDE4-6467C21716DF}"/>
-    <hyperlink ref="F10" r:id="rId9" xr:uid="{7D6E0C57-FA7B-402C-B65D-F96FBB9F3E2C}"/>
-    <hyperlink ref="F11" r:id="rId10" xr:uid="{09198764-D21C-409F-931A-B3A793E82926}"/>
-    <hyperlink ref="F12" r:id="rId11" xr:uid="{BD7E40A0-8F54-4067-BB87-69800194E50C}"/>
-    <hyperlink ref="H12" r:id="rId12" xr:uid="{AD9A1001-D204-4573-AA15-29F0747FEEBD}"/>
-    <hyperlink ref="F13" r:id="rId13" xr:uid="{AFBD5D07-D274-42A3-921E-09F8ADEBC371}"/>
-    <hyperlink ref="H13" r:id="rId14" xr:uid="{CBBBFA45-4D76-416F-BDE5-B9B4706F94C9}"/>
-    <hyperlink ref="F14" r:id="rId15" xr:uid="{650192EF-5F40-471A-897A-3541B9A389AD}"/>
-    <hyperlink ref="H14" r:id="rId16" xr:uid="{2CDFED2A-5CBF-4C39-87D0-6CAD53892994}"/>
-    <hyperlink ref="F16" r:id="rId17" xr:uid="{FB54A06C-30E3-4372-9304-54A30991E1EB}"/>
-    <hyperlink ref="H16" r:id="rId18" xr:uid="{C9EDE456-BDFE-4C93-88C9-33BDAE119A49}"/>
-    <hyperlink ref="F17" r:id="rId19" xr:uid="{3ED0E95F-3803-46A7-89EB-E09BBA8E309E}"/>
-    <hyperlink ref="F18" r:id="rId20" xr:uid="{1915ADDD-E0AA-4EDF-BFA2-3B67EEB7DAC8}"/>
-    <hyperlink ref="H18" r:id="rId21" xr:uid="{676479B4-BCB5-4F2E-BEE7-9CA8EC410B98}"/>
-    <hyperlink ref="F19" r:id="rId22" xr:uid="{DD7ECCF9-CE3C-4C34-9729-40F3A6F5D4BF}"/>
-    <hyperlink ref="F15" r:id="rId23" xr:uid="{332B3AFE-6B38-4382-A375-4C2003EF6166}"/>
-    <hyperlink ref="H15" r:id="rId24" xr:uid="{93857D19-0431-42BF-87C2-35743ECD0740}"/>
-    <hyperlink ref="H17" r:id="rId25" xr:uid="{77683C9B-7616-4541-9DA9-5C3DCED6A999}"/>
+    <hyperlink ref="F3" r:id="rId1" display="mailto:automationexistingcontact001@mailinator.com" xr:uid="{4A32C8CA-7755-49D2-A82C-F1CB1B382639}"/>
+    <hyperlink ref="F5" r:id="rId2" display="mailto:automationpsgcontact001@mailinator.com" xr:uid="{FC9FBAD0-E30D-4E7A-A705-7968A0E1C910}"/>
+    <hyperlink ref="H10" r:id="rId3" xr:uid="{DD0408AB-2BA5-4990-B211-0DF01180EEC9}"/>
+    <hyperlink ref="H11" r:id="rId4" display="mailto:test_qa0922@mailinator.com" xr:uid="{F8176DC2-7FD5-4C57-A0BD-03F4F7642923}"/>
+    <hyperlink ref="H13" r:id="rId5" xr:uid="{47E4F6EA-292A-4519-B99F-6843185CD22E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId26"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/resources/TestFiles/TestFileDraco.xlsx
+++ b/resources/TestFiles/TestFileDraco.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asuhassx\giteum\AccessandEntitlementsAutomation\resources\TestFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amartyax\gitDRACOApr10\AccessandEntitlementsAutomation\resources\TestFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A60AD00-5573-47FB-883F-90431E19AA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABF9BB0-535F-4801-8291-7B7EFE29DD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InternalUserData" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="298">
   <si>
     <t>Users</t>
   </si>
@@ -712,12 +712,6 @@
     <t>TC0020_DRACO</t>
   </si>
   <si>
-    <t>12004853@intel.com.crm.crmqa3</t>
-  </si>
-  <si>
-    <t>Intel*1234</t>
-  </si>
-  <si>
     <t>Automationccprun01</t>
   </si>
   <si>
@@ -821,6 +815,136 @@
   </si>
   <si>
     <t>Useripa02</t>
+  </si>
+  <si>
+    <t>TC0041_DRACO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testself </t>
+  </si>
+  <si>
+    <t>nuna19123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+testselfnuna19123@mail7.io</t>
+  </si>
+  <si>
+    <t>testaccount19123</t>
+  </si>
+  <si>
+    <t>automatedtestcasesusermpnewinvite6@mailinator.com</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>TC0042_DRACO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Season_PA </t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>sopune1@lpql.com</t>
+  </si>
+  <si>
+    <t>testepum</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>testepumobm1@mail.com</t>
+  </si>
+  <si>
+    <t>TC0043_DRACO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test </t>
+  </si>
+  <si>
+    <t>ccpafffs</t>
+  </si>
+  <si>
+    <t>testccp011801@mailinator.com</t>
+  </si>
+  <si>
+    <t>TC0044_DRACO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testent40 </t>
+  </si>
+  <si>
+    <t>check40</t>
+  </si>
+  <si>
+    <t>update_testent40check40@mailinator.com</t>
+  </si>
+  <si>
+    <t>TC0045_DRACO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UAT_test1 </t>
+  </si>
+  <si>
+    <t>Contact_forUAT</t>
+  </si>
+  <si>
+    <t>uat_test13@mailinator.com</t>
+  </si>
+  <si>
+    <t>TC0046_DRACO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testiips </t>
+  </si>
+  <si>
+    <t>demo2</t>
+  </si>
+  <si>
+    <t>testdlt1@mail.com</t>
+  </si>
+  <si>
+    <t>TC0047_DRACO</t>
+  </si>
+  <si>
+    <t>testengagement98check98@mailinator.com</t>
+  </si>
+  <si>
+    <t>TC0048_DRACO</t>
+  </si>
+  <si>
+    <t>AutomationMPdraco3</t>
+  </si>
+  <si>
+    <t>Useripa03</t>
+  </si>
+  <si>
+    <t>TC0049_DRACO</t>
+  </si>
+  <si>
+    <t>AutomationMPdraco4</t>
+  </si>
+  <si>
+    <t>TC0050_DRACO</t>
+  </si>
+  <si>
+    <t>AutomationMPdraco5</t>
+  </si>
+  <si>
+    <t>TC0051_DRACO</t>
+  </si>
+  <si>
+    <t>AutomationMPdraco6</t>
+  </si>
+  <si>
+    <t>testqaauto@intel.com.crm.crmqa3</t>
+  </si>
+  <si>
+    <t>Intel*123</t>
   </si>
 </sst>
 </file>
@@ -948,7 +1072,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1027,6 +1151,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3185,7 +3321,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3233,28 +3369,31 @@
         <v>18</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>220</v>
+        <v>296</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>221</v>
+        <v>297</v>
       </c>
       <c r="E3" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E3" xr:uid="{B30C7179-49C6-4CE4-9EE3-050BEF570246}"/>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{5A420B5D-B2DE-4F29-8D75-44A8298FD4AA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE4A502-95AD-4FD1-BDAA-46A877825265}">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3321,7 +3460,7 @@
         <v>218</v>
       </c>
       <c r="P1" s="34" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
@@ -3335,10 +3474,10 @@
         <v>189</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F2" s="12" t="str">
         <f>_xlfn.CONCAT(D2,E2,"@mailinator.com")</f>
@@ -3359,13 +3498,13 @@
         <v>189</v>
       </c>
       <c r="D3" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="F3" s="32" t="s">
         <v>224</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>226</v>
       </c>
       <c r="G3" s="31" t="s">
         <v>195</v>
@@ -3382,10 +3521,10 @@
         <v>189</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F4" s="12" t="str">
         <f>_xlfn.CONCAT(D4,E4,"@mailinator.com")</f>
@@ -3406,13 +3545,13 @@
         <v>189</v>
       </c>
       <c r="D5" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="F5" s="32" t="s">
         <v>227</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>228</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>229</v>
       </c>
       <c r="G5" s="31" t="s">
         <v>195</v>
@@ -3473,10 +3612,10 @@
         <v>189</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F10" s="12" t="str">
         <f>_xlfn.CONCAT(D10,E10,"@mailinator.com")</f>
@@ -3486,13 +3625,13 @@
         <v>190</v>
       </c>
       <c r="H10" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="J10" s="12" t="s">
         <v>233</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>235</v>
       </c>
       <c r="K10" s="12" t="s">
         <v>212</v>
@@ -3509,10 +3648,10 @@
         <v>189</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F11" s="12" t="str">
         <f>_xlfn.CONCAT(D11,E11,"@mailinator.com")</f>
@@ -3522,7 +3661,7 @@
         <v>190</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
@@ -3536,7 +3675,7 @@
         <v>189</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F12" s="12" t="str">
         <f t="shared" ref="F12:F13" si="0">_xlfn.CONCAT(D12,E12,"@mailinator.com")</f>
@@ -3557,10 +3696,10 @@
         <v>189</v>
       </c>
       <c r="D13" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>239</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>241</v>
       </c>
       <c r="F13" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3570,13 +3709,13 @@
         <v>190</v>
       </c>
       <c r="H13" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="J13" s="12" t="s">
         <v>242</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>244</v>
       </c>
       <c r="K13" s="12" t="s">
         <v>212</v>
@@ -3621,7 +3760,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>210</v>
       </c>
@@ -3632,7 +3771,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>211</v>
       </c>
@@ -3643,7 +3782,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>213</v>
       </c>
@@ -3654,7 +3793,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>217</v>
       </c>
@@ -3665,7 +3804,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>219</v>
       </c>
@@ -3676,24 +3815,24 @@
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" s="33" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A23" s="33" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A24" s="33" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A23" s="33" t="s">
+    <row r="25" spans="1:18" ht="20" x14ac:dyDescent="0.35">
+      <c r="A25" s="33" t="s">
         <v>246</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A24" s="33" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="20" x14ac:dyDescent="0.35">
-      <c r="A25" s="33" t="s">
-        <v>248</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>184</v>
@@ -3702,25 +3841,25 @@
         <v>189</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F25" s="12" t="str">
         <f>_xlfn.CONCAT(D25,E25,"@mailinator.com")</f>
         <v>AutomationMPdraco2Useripa02@mailinator.com</v>
       </c>
       <c r="G25" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="P25" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="P25" s="35" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:18" ht="20" x14ac:dyDescent="0.35">
       <c r="A26" s="33" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>184</v>
@@ -3729,20 +3868,484 @@
         <v>189</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F26" s="12" t="str">
         <f>_xlfn.CONCAT(D26,E26,"@mailinator.com")</f>
         <v>AutomationMPdracoUseripa01@mailinator.com</v>
       </c>
       <c r="G26" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="P26" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="P26" s="35" t="s">
+    </row>
+    <row r="27" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F27" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F28" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="39" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="20" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F29" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="20" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F30" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="20" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F31" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="20" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F32" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="20" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F33" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q33" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="20" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="F34" s="2" t="str">
+        <f>_xlfn.CONCAT(D34,E34,"@mailinator.com")</f>
+        <v>AutomationMPdraco3Useripa03@mailinator.com</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q34" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="20" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="F35" s="2" t="str">
+        <f>_xlfn.CONCAT(D35,E35,"@mailinator.com")</f>
+        <v>AutomationMPdraco4Useripa03@mailinator.com</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q35" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="20" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>254</v>
+      </c>
+      <c r="F36" s="2" t="str">
+        <f>_xlfn.CONCAT(D36,E36,"@mailinator.com")</f>
+        <v>AutomationMPdraco5Useripa02@mailinator.com</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q36" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="20" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F37" s="2" t="str">
+        <f>_xlfn.CONCAT(D37,E37,"@mailinator.com")</f>
+        <v>AutomationMPdraco6Useripa02@mailinator.com</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q37" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3753,8 +4356,26 @@
     <hyperlink ref="H10" r:id="rId3" xr:uid="{DD0408AB-2BA5-4990-B211-0DF01180EEC9}"/>
     <hyperlink ref="H11" r:id="rId4" display="mailto:test_qa0922@mailinator.com" xr:uid="{F8176DC2-7FD5-4C57-A0BD-03F4F7642923}"/>
     <hyperlink ref="H13" r:id="rId5" xr:uid="{47E4F6EA-292A-4519-B99F-6843185CD22E}"/>
+    <hyperlink ref="Q27" r:id="rId6" xr:uid="{8AC9AF0A-2A47-46DA-8FCB-77580023A2D8}"/>
+    <hyperlink ref="Q28" r:id="rId7" xr:uid="{A8D313D5-882C-4B6A-AAC9-0DB7DA60759D}"/>
+    <hyperlink ref="Q30" r:id="rId8" xr:uid="{A1D308F4-98D3-4F7D-80BC-4FF8D0F1590A}"/>
+    <hyperlink ref="Q31" r:id="rId9" xr:uid="{893F6EE2-D894-4B19-8B0F-2E12288175B7}"/>
+    <hyperlink ref="Q32" r:id="rId10" xr:uid="{7F400370-81C9-452A-865D-37373A7C04D0}"/>
+    <hyperlink ref="Q29" r:id="rId11" xr:uid="{9BBB1257-7F9E-4CA8-90E5-2C7B989B8257}"/>
+    <hyperlink ref="F28" r:id="rId12" xr:uid="{650E7A69-1E7E-4F5C-8679-C8470315F881}"/>
+    <hyperlink ref="P28" r:id="rId13" xr:uid="{E2E6EA6E-5BE3-48F5-9F6A-1A8B70A07695}"/>
+    <hyperlink ref="F29" r:id="rId14" xr:uid="{EFE4F115-3128-437A-A59A-FE02B81BC722}"/>
+    <hyperlink ref="F30" r:id="rId15" xr:uid="{F7CB1880-1F97-475D-A862-B556B6DFAA6A}"/>
+    <hyperlink ref="F31" r:id="rId16" xr:uid="{DB82769F-5CE2-4B86-B435-A9E4417614D4}"/>
+    <hyperlink ref="F32" r:id="rId17" xr:uid="{37D84B70-DD44-478B-BB84-5F478EA90D3C}"/>
+    <hyperlink ref="Q33" r:id="rId18" xr:uid="{486BF87D-4AFC-4AB9-8D54-F7F293061449}"/>
+    <hyperlink ref="F33" r:id="rId19" xr:uid="{9DFDA37D-2143-4805-BDC2-BACD2CC22842}"/>
+    <hyperlink ref="Q34" r:id="rId20" xr:uid="{23C11847-CFF5-4E21-8AC2-4C009B12F4E3}"/>
+    <hyperlink ref="Q36" r:id="rId21" xr:uid="{796AA88E-2164-453F-9E2D-480755763345}"/>
+    <hyperlink ref="Q37" r:id="rId22" xr:uid="{72BCEEA9-1C08-487D-ADAA-9167BF9D1D1A}"/>
+    <hyperlink ref="Q35" r:id="rId23" xr:uid="{E16CE575-3E79-4A4F-9830-310D8C16A1BE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>
--- a/resources/TestFiles/TestFileDraco.xlsx
+++ b/resources/TestFiles/TestFileDraco.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asuhassx\Gitnew11April\AccessandEntitlementsAutomation\resources\TestFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amartyax\gitDRACOJun06\AccessandEntitlementsAutomation\resources\TestFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE060C8-E48D-43C5-AF6D-172B1E69031F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3B5B2A-0BBA-4320-84B8-47D129F42094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InternalUserData" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2181" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2185" uniqueCount="443">
   <si>
     <t>Users</t>
   </si>
@@ -1199,9 +1199,6 @@
     <t>Useripa02</t>
   </si>
   <si>
-    <t>AutomationMPdraco6</t>
-  </si>
-  <si>
     <t>Newcontactclassic</t>
   </si>
   <si>
@@ -1347,6 +1344,42 @@
   </si>
   <si>
     <t>testemployeenewuser4@mailinator.com</t>
+  </si>
+  <si>
+    <t>AutomationMPdraco3Useripa020@mailnator.com</t>
+  </si>
+  <si>
+    <t>AutomationMPdraco4Useripa030@mailnator.com</t>
+  </si>
+  <si>
+    <t>AutomationMPdraco5Useripa020@mailnator.com</t>
+  </si>
+  <si>
+    <t>AutomationMPdraco7</t>
+  </si>
+  <si>
+    <t>AutomationMPdraco7Useripa020@mailnator.com</t>
+  </si>
+  <si>
+    <t>automationmpdraco6useripa20@mailnator.com</t>
+  </si>
+  <si>
+    <t>automationmpdraco20useripa01@mailinator.com</t>
+  </si>
+  <si>
+    <t>automationmpdraco5useripa56@mailinator.com</t>
+  </si>
+  <si>
+    <t>automationmpdraco5useripa55@mailinator.com</t>
+  </si>
+  <si>
+    <t>automationmpdraco4useripa31@mailinator.com</t>
+  </si>
+  <si>
+    <t>automationmpdraco4useripa30@mailinator.com</t>
+  </si>
+  <si>
+    <t>newcontact2@mailnator.com</t>
   </si>
 </sst>
 </file>
@@ -1565,7 +1598,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1698,6 +1731,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3924,9 +3963,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE4A502-95AD-4FD1-BDAA-46A877825265}">
   <dimension ref="A1:AI60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="68" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="68" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5174,25 +5213,25 @@
         <v>189</v>
       </c>
       <c r="D14" s="30" t="s">
+        <v>386</v>
+      </c>
+      <c r="E14" s="30" t="s">
         <v>387</v>
       </c>
-      <c r="E14" s="30" t="s">
-        <v>388</v>
-      </c>
       <c r="F14" s="58" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G14" s="30" t="s">
         <v>190</v>
       </c>
       <c r="H14" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="I14" s="30" t="s">
         <v>389</v>
       </c>
-      <c r="I14" s="30" t="s">
+      <c r="J14" s="30" t="s">
         <v>390</v>
-      </c>
-      <c r="J14" s="30" t="s">
-        <v>391</v>
       </c>
       <c r="K14" s="30" t="s">
         <v>212</v>
@@ -5269,34 +5308,34 @@
         <v>189</v>
       </c>
       <c r="D15" s="30" t="s">
+        <v>391</v>
+      </c>
+      <c r="E15" s="30" t="s">
         <v>392</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="F15" s="3" t="s">
         <v>393</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>394</v>
       </c>
       <c r="G15" s="30" t="s">
         <v>283</v>
       </c>
       <c r="H15" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="I15" s="30" t="s">
         <v>395</v>
       </c>
-      <c r="I15" s="30" t="s">
+      <c r="J15" s="30" t="s">
         <v>396</v>
       </c>
-      <c r="J15" s="30" t="s">
+      <c r="K15" s="30" t="s">
         <v>397</v>
-      </c>
-      <c r="K15" s="30" t="s">
-        <v>398</v>
       </c>
       <c r="L15" s="30" t="s">
         <v>283</v>
       </c>
       <c r="M15" s="30" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="N15" s="30" t="s">
         <v>289</v>
@@ -5364,25 +5403,25 @@
         <v>189</v>
       </c>
       <c r="D16" s="30" t="s">
+        <v>386</v>
+      </c>
+      <c r="E16" s="30" t="s">
         <v>387</v>
       </c>
-      <c r="E16" s="30" t="s">
-        <v>388</v>
-      </c>
       <c r="F16" s="58" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G16" s="30" t="s">
         <v>190</v>
       </c>
       <c r="H16" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="I16" s="30" t="s">
         <v>399</v>
       </c>
-      <c r="I16" s="30" t="s">
+      <c r="J16" s="30" t="s">
         <v>400</v>
-      </c>
-      <c r="J16" s="30" t="s">
-        <v>401</v>
       </c>
       <c r="K16" s="30" t="s">
         <v>212</v>
@@ -5459,25 +5498,25 @@
         <v>189</v>
       </c>
       <c r="D17" s="30" t="s">
+        <v>386</v>
+      </c>
+      <c r="E17" s="30" t="s">
         <v>387</v>
       </c>
-      <c r="E17" s="30" t="s">
-        <v>388</v>
-      </c>
       <c r="F17" s="58" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G17" s="30" t="s">
         <v>190</v>
       </c>
       <c r="H17" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="I17" s="30" t="s">
         <v>402</v>
       </c>
-      <c r="I17" s="30" t="s">
+      <c r="J17" s="30" t="s">
         <v>403</v>
-      </c>
-      <c r="J17" s="30" t="s">
-        <v>404</v>
       </c>
       <c r="K17" s="30" t="s">
         <v>212</v>
@@ -5486,7 +5525,7 @@
         <v>283</v>
       </c>
       <c r="M17" s="30" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="N17" s="30" t="s">
         <v>289</v>
@@ -5554,25 +5593,25 @@
         <v>189</v>
       </c>
       <c r="D18" s="30" t="s">
+        <v>386</v>
+      </c>
+      <c r="E18" s="30" t="s">
         <v>387</v>
       </c>
-      <c r="E18" s="30" t="s">
-        <v>388</v>
-      </c>
       <c r="F18" s="58" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G18" s="30" t="s">
         <v>190</v>
       </c>
       <c r="H18" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="I18" s="30" t="s">
         <v>405</v>
       </c>
-      <c r="I18" s="30" t="s">
+      <c r="J18" s="30" t="s">
         <v>406</v>
-      </c>
-      <c r="J18" s="30" t="s">
-        <v>407</v>
       </c>
       <c r="K18" s="30" t="s">
         <v>212</v>
@@ -5649,13 +5688,13 @@
         <v>189</v>
       </c>
       <c r="D19" s="60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E19" s="60" t="s">
         <v>366</v>
       </c>
       <c r="F19" s="48" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G19" s="30" t="s">
         <v>190</v>
@@ -5744,13 +5783,13 @@
         <v>189</v>
       </c>
       <c r="D20" s="30" t="s">
+        <v>386</v>
+      </c>
+      <c r="E20" s="30" t="s">
         <v>387</v>
       </c>
-      <c r="E20" s="30" t="s">
-        <v>388</v>
-      </c>
       <c r="F20" s="58" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G20" s="30" t="s">
         <v>190</v>
@@ -5839,34 +5878,34 @@
         <v>189</v>
       </c>
       <c r="D21" s="30" t="s">
+        <v>386</v>
+      </c>
+      <c r="E21" s="30" t="s">
         <v>387</v>
       </c>
-      <c r="E21" s="30" t="s">
-        <v>388</v>
-      </c>
       <c r="F21" s="58" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G21" s="30" t="s">
         <v>190</v>
       </c>
       <c r="H21" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="I21" s="30" t="s">
         <v>395</v>
       </c>
-      <c r="I21" s="30" t="s">
+      <c r="J21" s="30" t="s">
         <v>396</v>
       </c>
-      <c r="J21" s="30" t="s">
+      <c r="K21" s="30" t="s">
         <v>397</v>
-      </c>
-      <c r="K21" s="30" t="s">
-        <v>398</v>
       </c>
       <c r="L21" s="30" t="s">
         <v>283</v>
       </c>
       <c r="M21" s="30" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="N21" s="30" t="s">
         <v>289</v>
@@ -6414,13 +6453,13 @@
         <v>249</v>
       </c>
       <c r="H27" s="62" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I27" s="59" t="s">
         <v>350</v>
       </c>
       <c r="J27" s="30" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
@@ -6498,7 +6537,7 @@
         <v>249</v>
       </c>
       <c r="H28" s="62" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I28" s="30"/>
       <c r="J28" s="30"/>
@@ -6507,10 +6546,10 @@
       <c r="M28" s="30"/>
       <c r="N28" s="30"/>
       <c r="O28" s="62" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="P28" s="62" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="Q28" s="42" t="s">
         <v>289</v>
@@ -6581,14 +6620,14 @@
         <v>249</v>
       </c>
       <c r="H29" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="I29" s="59" t="s">
+        <v>413</v>
+      </c>
+      <c r="J29" s="59" t="s">
         <v>412</v>
       </c>
-      <c r="I29" s="59" t="s">
-        <v>414</v>
-      </c>
-      <c r="J29" s="59" t="s">
-        <v>413</v>
-      </c>
       <c r="K29" s="30" t="s">
         <v>289</v>
       </c>
@@ -6602,10 +6641,10 @@
         <v>289</v>
       </c>
       <c r="O29" s="48" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="P29" s="48" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Q29" s="42" t="s">
         <v>289</v>
@@ -6749,857 +6788,857 @@
       </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="64" t="s">
         <v>184</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="E31" s="31" t="s">
+      <c r="E31" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="F31" s="38" t="s">
+      <c r="F31" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="G31" s="31" t="s">
+      <c r="G31" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="H31" s="37" t="s">
+      <c r="H31" s="65" t="s">
         <v>261</v>
       </c>
-      <c r="I31" s="31" t="s">
+      <c r="I31" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="J31" s="31" t="s">
+      <c r="J31" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="K31" s="31" t="s">
+      <c r="K31" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="L31" s="31" t="s">
+      <c r="L31" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="M31" s="31" t="s">
+      <c r="M31" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="N31" s="31" t="s">
+      <c r="N31" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="O31" s="38" t="s">
+      <c r="O31" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="P31" s="31" t="s">
+      <c r="P31" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="Q31" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="R31" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="S31" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="T31" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="U31" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="V31" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="W31" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="X31" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="Y31" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="Z31" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="AA31" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="AB31" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="AC31" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="AD31" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="AE31" s="42" t="s">
+      <c r="Q31" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="R31" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="S31" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="T31" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="U31" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="V31" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="W31" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="X31" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y31" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z31" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="AA31" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB31" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="AC31" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="AD31" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="AE31" s="66" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A32" s="43" t="s">
+      <c r="A32" s="67" t="s">
         <v>270</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="64" t="s">
         <v>184</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="E32" s="31" t="s">
+      <c r="E32" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="F32" s="38" t="s">
+      <c r="F32" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="G32" s="31" t="s">
+      <c r="G32" s="2" t="s">
         <v>249</v>
       </c>
       <c r="H32" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="I32" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="I32" s="30" t="s">
+      <c r="J32" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="J32" s="30" t="s">
+      <c r="K32" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q32" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="R32" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="S32" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="T32" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="U32" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="V32" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="W32" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="X32" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y32" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z32" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="AA32" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB32" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="AC32" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="AD32" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="AE32" s="66" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A33" s="67" t="s">
+        <v>271</v>
+      </c>
+      <c r="B33" s="64" t="s">
+        <v>184</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q33" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="R33" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="S33" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="T33" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="U33" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="V33" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="W33" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="X33" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y33" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z33" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="AA33" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB33" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="AC33" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="AD33" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="AE33" s="66" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A34" s="67" t="s">
+        <v>272</v>
+      </c>
+      <c r="B34" s="64" t="s">
+        <v>184</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="H34" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="K32" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="L32" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="M32" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="N32" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="O32" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="P32" s="31" t="s">
+      <c r="I34" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="P34" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="Q32" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="R32" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="S32" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="T32" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="U32" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="V32" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="W32" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="X32" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="Y32" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="Z32" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="AA32" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="AB32" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="AC32" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="AD32" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="AE32" s="42" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A33" s="43" t="s">
-        <v>271</v>
-      </c>
-      <c r="B33" s="36" t="s">
+      <c r="Q34" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="R34" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="S34" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="T34" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="U34" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="V34" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="W34" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="X34" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y34" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z34" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="AA34" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB34" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="AC34" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="AD34" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="AE34" s="66" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A35" s="67" t="s">
+        <v>273</v>
+      </c>
+      <c r="B35" s="64" t="s">
         <v>184</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="C35" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D35" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="E33" s="31" t="s">
+      <c r="E35" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="F33" s="38" t="s">
+      <c r="F35" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="G33" s="31" t="s">
+      <c r="G35" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="H33" s="38" t="s">
+      <c r="H35" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q35" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="R35" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="S35" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="T35" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="U35" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="V35" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="W35" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="X35" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y35" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z35" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="AA35" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB35" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="AC35" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="AD35" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="AE35" s="66" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A36" s="67" t="s">
+        <v>274</v>
+      </c>
+      <c r="B36" s="64" t="s">
+        <v>184</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="I33" s="30" t="s">
+      <c r="G36" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q36" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="R36" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="S36" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="T36" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="U36" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="V36" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="W36" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="X36" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y36" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z36" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="AA36" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB36" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="AC36" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="AD36" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="AE36" s="66" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A37" s="67" t="s">
+        <v>275</v>
+      </c>
+      <c r="B37" s="64" t="s">
+        <v>184</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="J33" s="31" t="s">
+      <c r="E37" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="K33" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="L33" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="M33" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="N33" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="O33" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="P33" s="31" t="s">
+      <c r="F37" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="P37" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="Q33" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="R33" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="S33" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="T33" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="U33" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="V33" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="W33" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="X33" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="Y33" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="Z33" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="AA33" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="AB33" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="AC33" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="AD33" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="AE33" s="42" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A34" s="43" t="s">
-        <v>272</v>
-      </c>
-      <c r="B34" s="36" t="s">
+      <c r="Q37" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="R37" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="S37" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="T37" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="U37" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="V37" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="W37" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="X37" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y37" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z37" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="AA37" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB37" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="AC37" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="AD37" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="AE37" s="66" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A38" s="67" t="s">
+        <v>276</v>
+      </c>
+      <c r="B38" s="64" t="s">
         <v>184</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="C38" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="D38" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="E34" s="31" t="s">
+      <c r="E38" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="F34" s="38" t="s">
+      <c r="F38" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="G34" s="31" t="s">
+      <c r="G38" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="H34" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="I34" s="30" t="s">
-        <v>419</v>
-      </c>
-      <c r="J34" s="30" t="s">
-        <v>413</v>
-      </c>
-      <c r="K34" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="L34" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="M34" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="N34" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="O34" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="P34" s="31" t="s">
+      <c r="H38" s="48" t="s">
+        <v>427</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="P38" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="Q34" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="R34" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="S34" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="T34" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="U34" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="V34" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="W34" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="X34" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="Y34" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="Z34" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="AA34" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="AB34" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="AC34" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="AD34" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="AE34" s="42" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A35" s="43" t="s">
-        <v>273</v>
-      </c>
-      <c r="B35" s="36" t="s">
+      <c r="Q38" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="R38" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="S38" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="T38" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="U38" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="V38" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="W38" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="X38" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y38" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z38" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="AA38" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB38" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="AC38" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="AD38" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="AE38" s="66" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A39" s="67" t="s">
+        <v>277</v>
+      </c>
+      <c r="B39" s="64" t="s">
         <v>184</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="C39" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="D39" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="E35" s="31" t="s">
+      <c r="E39" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="F35" s="38" t="s">
+      <c r="F39" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="G35" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="I35" s="30" t="s">
-        <v>421</v>
-      </c>
-      <c r="J35" s="30" t="s">
-        <v>422</v>
-      </c>
-      <c r="K35" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="L35" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="M35" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="N35" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="O35" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="P35" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q35" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="R35" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="S35" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="T35" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="U35" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="V35" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="W35" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="X35" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="Y35" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="Z35" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="AA35" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="AB35" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="AC35" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="AD35" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="AE35" s="42" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A36" s="43" t="s">
-        <v>274</v>
-      </c>
-      <c r="B36" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="D36" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="E36" s="31" t="s">
-        <v>258</v>
-      </c>
-      <c r="F36" s="38" t="s">
-        <v>259</v>
-      </c>
-      <c r="G36" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="I36" s="30" t="s">
-        <v>424</v>
-      </c>
-      <c r="J36" s="30" t="s">
-        <v>413</v>
-      </c>
-      <c r="K36" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="L36" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="M36" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="N36" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="O36" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="P36" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q36" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="R36" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="S36" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="T36" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="U36" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="V36" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="W36" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="X36" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="Y36" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="Z36" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="AA36" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="AB36" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="AC36" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="AD36" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="AE36" s="42" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A37" s="43" t="s">
-        <v>275</v>
-      </c>
-      <c r="B37" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="D37" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="E37" s="31" t="s">
-        <v>258</v>
-      </c>
-      <c r="F37" s="38" t="s">
-        <v>259</v>
-      </c>
-      <c r="G37" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="I37" s="30" t="s">
-        <v>426</v>
-      </c>
-      <c r="J37" s="30" t="s">
-        <v>427</v>
-      </c>
-      <c r="K37" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="L37" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="M37" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="N37" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="O37" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="P37" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q37" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="R37" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="S37" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="T37" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="U37" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="V37" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="W37" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="X37" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="Y37" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="Z37" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="AA37" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="AB37" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="AC37" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="AD37" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="AE37" s="42" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A38" s="43" t="s">
-        <v>276</v>
-      </c>
-      <c r="B38" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="C38" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="D38" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="E38" s="31" t="s">
-        <v>258</v>
-      </c>
-      <c r="F38" s="38" t="s">
-        <v>259</v>
-      </c>
-      <c r="G38" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="H38" s="48" t="s">
-        <v>428</v>
-      </c>
-      <c r="I38" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="J38" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="K38" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="L38" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="M38" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="N38" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="O38" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="P38" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q38" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="R38" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="S38" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="T38" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="U38" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="V38" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="W38" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="X38" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="Y38" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="Z38" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="AA38" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="AB38" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="AC38" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="AD38" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="AE38" s="42" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A39" s="43" t="s">
-        <v>277</v>
-      </c>
-      <c r="B39" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="D39" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="E39" s="31" t="s">
-        <v>258</v>
-      </c>
-      <c r="F39" s="38" t="s">
-        <v>259</v>
-      </c>
-      <c r="G39" s="31" t="s">
+      <c r="G39" s="2" t="s">
         <v>249</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="I39" s="30" t="s">
+      <c r="I39" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="J39" s="30" t="s">
+      <c r="J39" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="K39" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="L39" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="M39" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="N39" s="30" t="s">
+      <c r="K39" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="N39" s="2" t="s">
         <v>289</v>
       </c>
       <c r="O39" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="P39" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q39" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="R39" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="S39" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="T39" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="U39" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="V39" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="W39" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="X39" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="Y39" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="Z39" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="AA39" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="AB39" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="AC39" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="AD39" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="AE39" s="42" t="s">
+      <c r="P39" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q39" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="R39" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="S39" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="T39" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="U39" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="V39" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="W39" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="X39" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y39" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z39" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="AA39" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB39" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="AC39" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="AD39" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="AE39" s="66" t="s">
         <v>289</v>
       </c>
     </row>
@@ -8289,7 +8328,7 @@
       </c>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A49" s="41" t="s">
+      <c r="A49" s="5" t="s">
         <v>329</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -8304,9 +8343,8 @@
       <c r="E49" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F49" s="2" t="str">
-        <f>_xlfn.CONCAT(D49,E49,"@mailinator.com")</f>
-        <v>AutomationMPdraco3Useripa03@mailinator.com</v>
+      <c r="F49" s="3" t="s">
+        <v>431</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>249</v>
@@ -8328,9 +8366,22 @@
       <c r="R49" s="2" t="s">
         <v>363</v>
       </c>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="2"/>
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="2"/>
+      <c r="AB49" s="2"/>
+      <c r="AC49" s="2"/>
+      <c r="AD49" s="2"/>
+      <c r="AE49" s="2"/>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A50" s="41" t="s">
+      <c r="A50" s="5" t="s">
         <v>330</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -8345,9 +8396,8 @@
       <c r="E50" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F50" s="2" t="str">
-        <f>_xlfn.CONCAT(D50,E50,"@mailinator.com")</f>
-        <v>AutomationMPdraco4Useripa03@mailinator.com</v>
+      <c r="F50" s="3" t="s">
+        <v>432</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>249</v>
@@ -8369,9 +8419,22 @@
       <c r="R50" s="2" t="s">
         <v>363</v>
       </c>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="2"/>
+      <c r="AA50" s="2"/>
+      <c r="AB50" s="2"/>
+      <c r="AC50" s="2"/>
+      <c r="AD50" s="2"/>
+      <c r="AE50" s="2"/>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A51" s="41" t="s">
+      <c r="A51" s="5" t="s">
         <v>331</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -8386,9 +8449,8 @@
       <c r="E51" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="F51" s="2" t="str">
-        <f>_xlfn.CONCAT(D51,E51,"@mailinator.com")</f>
-        <v>AutomationMPdraco5Useripa02@mailinator.com</v>
+      <c r="F51" s="3" t="s">
+        <v>433</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>249</v>
@@ -8410,9 +8472,22 @@
       <c r="R51" s="2" t="s">
         <v>363</v>
       </c>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="2"/>
+      <c r="AA51" s="2"/>
+      <c r="AB51" s="2"/>
+      <c r="AC51" s="2"/>
+      <c r="AD51" s="2"/>
+      <c r="AE51" s="2"/>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A52" s="41" t="s">
+      <c r="A52" s="5" t="s">
         <v>332</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -8422,14 +8497,13 @@
         <v>189</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>382</v>
+        <v>434</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="F52" s="2" t="str">
-        <f>_xlfn.CONCAT(D52,E52,"@mailinator.com")</f>
-        <v>AutomationMPdraco6Useripa02@mailinator.com</v>
+      <c r="F52" s="3" t="s">
+        <v>435</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>249</v>
@@ -8451,6 +8525,19 @@
       <c r="R52" s="2" t="s">
         <v>363</v>
       </c>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="2"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="2"/>
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="2"/>
+      <c r="AB52" s="2"/>
+      <c r="AC52" s="2"/>
+      <c r="AD52" s="2"/>
+      <c r="AE52" s="2"/>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A53" s="41" t="s">
@@ -8508,13 +8595,13 @@
         <v>289</v>
       </c>
       <c r="S53" s="42" t="s">
+        <v>382</v>
+      </c>
+      <c r="T53" s="42" t="s">
         <v>383</v>
       </c>
-      <c r="T53" s="42" t="s">
+      <c r="U53" s="57" t="s">
         <v>384</v>
-      </c>
-      <c r="U53" s="57" t="s">
-        <v>385</v>
       </c>
       <c r="V53" s="47" t="s">
         <v>283</v>
@@ -8603,13 +8690,13 @@
         <v>289</v>
       </c>
       <c r="S54" s="42" t="s">
+        <v>382</v>
+      </c>
+      <c r="T54" s="42" t="s">
         <v>383</v>
       </c>
-      <c r="T54" s="42" t="s">
+      <c r="U54" s="57" t="s">
         <v>384</v>
-      </c>
-      <c r="U54" s="57" t="s">
-        <v>385</v>
       </c>
       <c r="V54" s="47" t="s">
         <v>283</v>
@@ -8793,13 +8880,13 @@
         <v>289</v>
       </c>
       <c r="S56" s="47" t="s">
+        <v>428</v>
+      </c>
+      <c r="T56" s="47" t="s">
         <v>429</v>
       </c>
-      <c r="T56" s="47" t="s">
+      <c r="U56" s="63" t="s">
         <v>430</v>
-      </c>
-      <c r="U56" s="63" t="s">
-        <v>431</v>
       </c>
       <c r="V56" s="47" t="s">
         <v>283</v>
@@ -9078,13 +9165,13 @@
         <v>289</v>
       </c>
       <c r="S59" s="47" t="s">
+        <v>428</v>
+      </c>
+      <c r="T59" s="47" t="s">
         <v>429</v>
       </c>
-      <c r="T59" s="47" t="s">
+      <c r="U59" s="63" t="s">
         <v>430</v>
-      </c>
-      <c r="U59" s="63" t="s">
-        <v>431</v>
       </c>
       <c r="V59" s="47" t="s">
         <v>283</v>
@@ -9220,97 +9307,108 @@
     <hyperlink ref="H10" r:id="rId3" xr:uid="{DD0408AB-2BA5-4990-B211-0DF01180EEC9}"/>
     <hyperlink ref="H11" r:id="rId4" display="mailto:test_qa0922@mailinator.com" xr:uid="{F8176DC2-7FD5-4C57-A0BD-03F4F7642923}"/>
     <hyperlink ref="H13" r:id="rId5" xr:uid="{47E4F6EA-292A-4519-B99F-6843185CD22E}"/>
-    <hyperlink ref="F31" r:id="rId6" display="mailto:sopune1@lpql.com" xr:uid="{8A10965E-FE94-4E90-B0FA-A6817979E76D}"/>
-    <hyperlink ref="O31" r:id="rId7" xr:uid="{06CB3102-CA6F-4291-8280-66A4FA3ADE56}"/>
-    <hyperlink ref="H31" r:id="rId8" xr:uid="{29D2ED20-866E-4A0F-B549-EE2A82C7BEBE}"/>
-    <hyperlink ref="H40" r:id="rId9" xr:uid="{69DE9AE7-622E-47E2-BAD4-D5F1D4FF3FE8}"/>
-    <hyperlink ref="F40" r:id="rId10" xr:uid="{D7556453-C18C-47E8-A8D7-3771DBDF4B0B}"/>
-    <hyperlink ref="H22" r:id="rId11" xr:uid="{09108062-5E6D-4A82-8EB5-A7BAF437C499}"/>
-    <hyperlink ref="F22" r:id="rId12" xr:uid="{3951430B-7F29-4743-A5E7-CF385033E8DB}"/>
-    <hyperlink ref="F2" r:id="rId13" xr:uid="{C495B51B-969A-4091-B159-C597D5768023}"/>
-    <hyperlink ref="F10" r:id="rId14" xr:uid="{4862218B-34DA-4319-BA45-9B5F9117786A}"/>
-    <hyperlink ref="F6" r:id="rId15" xr:uid="{938056D2-00E8-4803-A233-4BB5A10F2311}"/>
-    <hyperlink ref="F7:F9" r:id="rId16" display="testuseraandelight5@mailinator.com" xr:uid="{00016F8C-851C-4F20-A868-8A84774BD413}"/>
-    <hyperlink ref="F8" r:id="rId17" xr:uid="{185B646E-BD4D-4D6E-94F9-D77EA2511044}"/>
-    <hyperlink ref="F9" r:id="rId18" xr:uid="{F71A1CAE-199D-4BE4-AB67-399FE1F00207}"/>
-    <hyperlink ref="F23" r:id="rId19" xr:uid="{7175A1C5-9874-4613-B474-31B84E8860C9}"/>
-    <hyperlink ref="P23" r:id="rId20" xr:uid="{00E89001-1856-41F7-B2DC-B579D42D4C7D}"/>
-    <hyperlink ref="H23" r:id="rId21" xr:uid="{E245CD7E-3A60-452E-A9CA-838B43ADE888}"/>
-    <hyperlink ref="U60" r:id="rId22" xr:uid="{A7A3C3F2-AF17-4E8E-834A-F4C4C32CC97B}"/>
-    <hyperlink ref="U58" r:id="rId23" display="mailto:uat_test13@mailinator.com" xr:uid="{6E3B0E1B-8664-4F24-8578-B0597A31F4BC}"/>
-    <hyperlink ref="F39" r:id="rId24" display="mailto:sopune1@lpql.com" xr:uid="{B3C98E2D-D165-4D98-A616-4831897D840A}"/>
-    <hyperlink ref="H39" r:id="rId25" xr:uid="{84529F42-C057-4457-9DF6-AE2DAD802398}"/>
-    <hyperlink ref="O39" r:id="rId26" xr:uid="{4E626648-EB70-48A0-9410-85044C6C48D8}"/>
-    <hyperlink ref="F30" r:id="rId27" display="mailto:sopune1@lpql.com" xr:uid="{054E8CAC-1E38-4D47-8A4A-104444C019B8}"/>
-    <hyperlink ref="F25" r:id="rId28" display="mailto:sopune1@lpql.com" xr:uid="{9E09C85F-5440-4B24-A866-0C99A2068F87}"/>
-    <hyperlink ref="O25" r:id="rId29" xr:uid="{17D6EA37-EE61-49EC-AA07-41DD4CF6D16C}"/>
-    <hyperlink ref="Q42" r:id="rId30" xr:uid="{6C5C5834-81C1-4656-8115-844E1D7E08DA}"/>
-    <hyperlink ref="Q43" r:id="rId31" xr:uid="{732FFE34-15A2-4B48-901F-BF473C282709}"/>
-    <hyperlink ref="Q45" r:id="rId32" xr:uid="{E3FE8387-B7C5-4A36-ADEF-DEE5B7CA21B6}"/>
-    <hyperlink ref="Q46" r:id="rId33" xr:uid="{7FC10136-7418-4E8A-B49F-FEDA030DACD8}"/>
-    <hyperlink ref="Q47" r:id="rId34" xr:uid="{84BF0425-5847-469A-BD1B-A765A30F4D2D}"/>
-    <hyperlink ref="Q44" r:id="rId35" xr:uid="{9C7D6DBA-0160-4502-9141-4383471087E5}"/>
-    <hyperlink ref="F43" r:id="rId36" xr:uid="{0430045C-05C3-468C-876B-FD434E6CEEC1}"/>
-    <hyperlink ref="P43" r:id="rId37" xr:uid="{D58D3B97-6C14-4514-86AD-7D1ADE5C31DD}"/>
-    <hyperlink ref="F44" r:id="rId38" xr:uid="{08A2BC3B-48EC-4164-8FE8-E0060EF2C728}"/>
-    <hyperlink ref="F45" r:id="rId39" xr:uid="{6F4446CE-D04B-47F2-B416-8911C3BCAD39}"/>
-    <hyperlink ref="F46" r:id="rId40" xr:uid="{4DED4062-DE00-4733-9CD0-28EE3529F72C}"/>
-    <hyperlink ref="F47" r:id="rId41" xr:uid="{676DB6A1-B5CA-4EA8-82A6-49D114DD662E}"/>
-    <hyperlink ref="Q48" r:id="rId42" xr:uid="{3DEC972D-7BC2-4969-83BC-1562FA2944BA}"/>
-    <hyperlink ref="F48" r:id="rId43" xr:uid="{62E3AF54-2327-4049-8BD6-B1A27D855899}"/>
-    <hyperlink ref="Q49" r:id="rId44" xr:uid="{7FD818AC-61D1-4BD4-90F9-EDD2F7DEA11A}"/>
-    <hyperlink ref="Q51" r:id="rId45" xr:uid="{332EFFA5-13FC-4607-B9D9-A362726049E4}"/>
-    <hyperlink ref="Q52" r:id="rId46" xr:uid="{C49D29CB-5CE3-4B6C-90A7-0A27AC0E43A9}"/>
-    <hyperlink ref="Q50" r:id="rId47" xr:uid="{8894CF84-4DBD-41BA-9281-00BCB58EB5DE}"/>
-    <hyperlink ref="F14" r:id="rId48" display="mailto:checkuiissue@mailinator.com" xr:uid="{82D21415-8ABA-48F9-A5DF-A87328AA5CAE}"/>
-    <hyperlink ref="H14" r:id="rId49" xr:uid="{F4B543E8-4999-484A-9ABA-1B1AA044FD06}"/>
-    <hyperlink ref="F15" r:id="rId50" xr:uid="{430FCF07-F4E3-4BBF-A630-7AC1644C5DB0}"/>
-    <hyperlink ref="H15" r:id="rId51" xr:uid="{BC2A2EA7-AAAB-4158-B22B-F4B0A506B5DD}"/>
-    <hyperlink ref="F16" r:id="rId52" display="mailto:checkuiissue@mailinator.com" xr:uid="{F86A9DAF-E84B-41B7-8644-EBDB5DF65D33}"/>
-    <hyperlink ref="H16" r:id="rId53" xr:uid="{FB47975C-2084-44AC-BE5F-83AB772AE5AF}"/>
-    <hyperlink ref="F17" r:id="rId54" display="mailto:checkuiissue@mailinator.com" xr:uid="{4DBC9A15-A787-4FE4-9B83-CED4EE73AA30}"/>
-    <hyperlink ref="H17" r:id="rId55" xr:uid="{E572E4BD-DB34-4A3A-9A16-9B6A6DF1139F}"/>
-    <hyperlink ref="F18" r:id="rId56" display="mailto:checkuiissue@mailinator.com" xr:uid="{4D2FF082-448B-4C8F-8CC4-ADA693F87E36}"/>
-    <hyperlink ref="H18" r:id="rId57" xr:uid="{84E5A160-0F0E-4EE0-803C-FA0EE02BF259}"/>
-    <hyperlink ref="F19" r:id="rId58" display="mailto:usertest1.0@mail.com" xr:uid="{C1088889-C727-4395-9EEF-35E7E28927ED}"/>
-    <hyperlink ref="F20" r:id="rId59" display="mailto:checkuiissue@mailinator.com" xr:uid="{FAA519E5-3ABB-4AC1-963F-2E56408F19A2}"/>
-    <hyperlink ref="H20" r:id="rId60" xr:uid="{631577DD-C9E3-490B-B74F-4F55671A3D81}"/>
-    <hyperlink ref="F21" r:id="rId61" display="mailto:checkuiissue@mailinator.com" xr:uid="{3BB6E720-AD44-4697-BC0D-8943351FA7CF}"/>
-    <hyperlink ref="H21" r:id="rId62" xr:uid="{0C3A0EB2-97B4-48D3-B332-7E0EBB97302C}"/>
-    <hyperlink ref="F24" r:id="rId63" xr:uid="{EC31840F-AC61-4809-A936-7AC0DD21A704}"/>
-    <hyperlink ref="P24" r:id="rId64" xr:uid="{0D89D4E1-0924-4EFC-A18C-65DAB6DBF61C}"/>
-    <hyperlink ref="H24" r:id="rId65" xr:uid="{6B8A2BF6-12E0-4570-B11F-0DC3B26B5396}"/>
-    <hyperlink ref="F27" r:id="rId66" display="mailto:sopune1@lpql.com" xr:uid="{8D32AE56-A30F-479C-951A-7BB0CA6FDDFB}"/>
-    <hyperlink ref="H28" r:id="rId67" display="mailto:testregistrationfeb7@mailinator.com" xr:uid="{F2805AF0-1DD2-4CA2-A7E0-CC361812AD42}"/>
-    <hyperlink ref="H27" r:id="rId68" display="mailto:testregistrationfeb7@mailinator.com" xr:uid="{19699DCD-E618-4E32-A3EA-91AC16AFC4C3}"/>
-    <hyperlink ref="P28" r:id="rId69" display="mailto:testregistrationfeb7@mailinator.com" xr:uid="{81CB4F06-846E-4AE6-A9E1-D0EF47163AAA}"/>
-    <hyperlink ref="O28" r:id="rId70" display="mailto:testregistrationfeb7@mailinator.com" xr:uid="{C8B1DB6F-A234-4C2C-B667-6408B2575442}"/>
-    <hyperlink ref="F29" r:id="rId71" display="mailto:sopune1@lpql.com" xr:uid="{2B66B0CF-0E57-40B5-B4E9-C693D55C3B82}"/>
-    <hyperlink ref="H29" r:id="rId72" xr:uid="{F40544FC-EB31-4D5B-858B-B6AE90EE3B49}"/>
-    <hyperlink ref="O29" r:id="rId73" display="mailto:newiqrtest5@mailinator.com" xr:uid="{076D2D09-781E-4644-8BA4-700F43E19968}"/>
-    <hyperlink ref="P29" r:id="rId74" display="mailto:newiqrtest5@mailinator.com" xr:uid="{DDF4BD56-4525-4000-A612-F77CEC4B9C04}"/>
-    <hyperlink ref="F32" r:id="rId75" display="mailto:sopune1@lpql.com" xr:uid="{A231C3E6-4571-4CE4-851A-AFE444994481}"/>
-    <hyperlink ref="H32" r:id="rId76" xr:uid="{163B1D8D-0320-4D28-852B-70D6F39E0532}"/>
-    <hyperlink ref="H33" r:id="rId77" display="mailto:sopune1@lpql.com" xr:uid="{6FF7A406-6CDE-4CAE-9CCA-643D170A6F0A}"/>
-    <hyperlink ref="F33" r:id="rId78" display="mailto:sopune1@lpql.com" xr:uid="{215E80E1-EE5B-4B01-9910-168400292104}"/>
-    <hyperlink ref="F34" r:id="rId79" display="mailto:sopune1@lpql.com" xr:uid="{C258FCA2-638A-47EC-A4C8-8E54B54B1B10}"/>
-    <hyperlink ref="F35" r:id="rId80" display="mailto:sopune1@lpql.com" xr:uid="{94D3495E-D591-4BAA-9F27-5E8C82130BC9}"/>
-    <hyperlink ref="F36" r:id="rId81" display="mailto:sopune1@lpql.com" xr:uid="{E5CF4EFA-4CF3-4413-8A5D-FB3EFBC58068}"/>
-    <hyperlink ref="F37" r:id="rId82" display="mailto:sopune1@lpql.com" xr:uid="{54E6E1B1-2490-43B0-BAE5-B9B3921026DF}"/>
-    <hyperlink ref="F38" r:id="rId83" display="mailto:sopune1@lpql.com" xr:uid="{27F79E8B-752F-499C-8B2F-F725B84E1328}"/>
-    <hyperlink ref="H34" r:id="rId84" xr:uid="{0286ED29-8C04-411D-968C-65CB940EB405}"/>
-    <hyperlink ref="H35" r:id="rId85" xr:uid="{6B046A84-CD84-4665-8342-E111D3811D14}"/>
-    <hyperlink ref="H36" r:id="rId86" xr:uid="{BADC215B-C5D6-4A9E-9A49-EDFE654C7572}"/>
-    <hyperlink ref="H37" r:id="rId87" xr:uid="{80D80A28-E2BE-4F18-9278-ADE35B05E9E8}"/>
-    <hyperlink ref="H38" r:id="rId88" display="mailto:test_softo1@soft.com" xr:uid="{44EC5774-6B84-4BAA-8914-A1FB5DACF99E}"/>
-    <hyperlink ref="U53" r:id="rId89" display="mailto:checkuiissue@mailinator.com" xr:uid="{D6DB0F88-A91C-471B-A4CD-6E4EECC284B2}"/>
-    <hyperlink ref="U54" r:id="rId90" display="mailto:checkuiissue@mailinator.com" xr:uid="{B8EED6F7-16F4-435C-9DE5-6C6099FBF4A1}"/>
-    <hyperlink ref="U59" r:id="rId91" xr:uid="{BEA78A18-FB99-475B-8EA3-2308292E2421}"/>
-    <hyperlink ref="U57" r:id="rId92" xr:uid="{6292144E-759B-45D2-93AC-5035B449A015}"/>
-    <hyperlink ref="U55" r:id="rId93" display="mailto:uat_test13@mailinator.com" xr:uid="{F3AAAB3D-17FD-47F5-89EC-3BDF4F92EB81}"/>
-    <hyperlink ref="U56" r:id="rId94" xr:uid="{C132A1FF-2EEE-44DA-8169-9D5A4D747CC2}"/>
+    <hyperlink ref="H40" r:id="rId6" xr:uid="{69DE9AE7-622E-47E2-BAD4-D5F1D4FF3FE8}"/>
+    <hyperlink ref="F40" r:id="rId7" xr:uid="{D7556453-C18C-47E8-A8D7-3771DBDF4B0B}"/>
+    <hyperlink ref="H22" r:id="rId8" xr:uid="{09108062-5E6D-4A82-8EB5-A7BAF437C499}"/>
+    <hyperlink ref="F22" r:id="rId9" xr:uid="{3951430B-7F29-4743-A5E7-CF385033E8DB}"/>
+    <hyperlink ref="F2" r:id="rId10" xr:uid="{C495B51B-969A-4091-B159-C597D5768023}"/>
+    <hyperlink ref="F10" r:id="rId11" xr:uid="{4862218B-34DA-4319-BA45-9B5F9117786A}"/>
+    <hyperlink ref="F6" r:id="rId12" xr:uid="{938056D2-00E8-4803-A233-4BB5A10F2311}"/>
+    <hyperlink ref="F7:F9" r:id="rId13" display="testuseraandelight5@mailinator.com" xr:uid="{00016F8C-851C-4F20-A868-8A84774BD413}"/>
+    <hyperlink ref="F8" r:id="rId14" xr:uid="{185B646E-BD4D-4D6E-94F9-D77EA2511044}"/>
+    <hyperlink ref="F9" r:id="rId15" xr:uid="{F71A1CAE-199D-4BE4-AB67-399FE1F00207}"/>
+    <hyperlink ref="F23" r:id="rId16" xr:uid="{7175A1C5-9874-4613-B474-31B84E8860C9}"/>
+    <hyperlink ref="P23" r:id="rId17" xr:uid="{00E89001-1856-41F7-B2DC-B579D42D4C7D}"/>
+    <hyperlink ref="H23" r:id="rId18" xr:uid="{E245CD7E-3A60-452E-A9CA-838B43ADE888}"/>
+    <hyperlink ref="U60" r:id="rId19" xr:uid="{A7A3C3F2-AF17-4E8E-834A-F4C4C32CC97B}"/>
+    <hyperlink ref="U58" r:id="rId20" display="mailto:uat_test13@mailinator.com" xr:uid="{6E3B0E1B-8664-4F24-8578-B0597A31F4BC}"/>
+    <hyperlink ref="F30" r:id="rId21" display="mailto:sopune1@lpql.com" xr:uid="{054E8CAC-1E38-4D47-8A4A-104444C019B8}"/>
+    <hyperlink ref="F25" r:id="rId22" display="mailto:sopune1@lpql.com" xr:uid="{9E09C85F-5440-4B24-A866-0C99A2068F87}"/>
+    <hyperlink ref="O25" r:id="rId23" xr:uid="{17D6EA37-EE61-49EC-AA07-41DD4CF6D16C}"/>
+    <hyperlink ref="Q42" r:id="rId24" xr:uid="{6C5C5834-81C1-4656-8115-844E1D7E08DA}"/>
+    <hyperlink ref="Q43" r:id="rId25" xr:uid="{732FFE34-15A2-4B48-901F-BF473C282709}"/>
+    <hyperlink ref="Q45" r:id="rId26" xr:uid="{E3FE8387-B7C5-4A36-ADEF-DEE5B7CA21B6}"/>
+    <hyperlink ref="Q46" r:id="rId27" xr:uid="{7FC10136-7418-4E8A-B49F-FEDA030DACD8}"/>
+    <hyperlink ref="Q47" r:id="rId28" xr:uid="{84BF0425-5847-469A-BD1B-A765A30F4D2D}"/>
+    <hyperlink ref="Q44" r:id="rId29" xr:uid="{9C7D6DBA-0160-4502-9141-4383471087E5}"/>
+    <hyperlink ref="F43" r:id="rId30" xr:uid="{0430045C-05C3-468C-876B-FD434E6CEEC1}"/>
+    <hyperlink ref="P43" r:id="rId31" xr:uid="{D58D3B97-6C14-4514-86AD-7D1ADE5C31DD}"/>
+    <hyperlink ref="F44" r:id="rId32" xr:uid="{08A2BC3B-48EC-4164-8FE8-E0060EF2C728}"/>
+    <hyperlink ref="F45" r:id="rId33" xr:uid="{6F4446CE-D04B-47F2-B416-8911C3BCAD39}"/>
+    <hyperlink ref="F46" r:id="rId34" xr:uid="{4DED4062-DE00-4733-9CD0-28EE3529F72C}"/>
+    <hyperlink ref="F47" r:id="rId35" xr:uid="{676DB6A1-B5CA-4EA8-82A6-49D114DD662E}"/>
+    <hyperlink ref="Q48" r:id="rId36" xr:uid="{3DEC972D-7BC2-4969-83BC-1562FA2944BA}"/>
+    <hyperlink ref="F48" r:id="rId37" xr:uid="{62E3AF54-2327-4049-8BD6-B1A27D855899}"/>
+    <hyperlink ref="F14" r:id="rId38" display="mailto:checkuiissue@mailinator.com" xr:uid="{82D21415-8ABA-48F9-A5DF-A87328AA5CAE}"/>
+    <hyperlink ref="H14" r:id="rId39" xr:uid="{F4B543E8-4999-484A-9ABA-1B1AA044FD06}"/>
+    <hyperlink ref="F15" r:id="rId40" xr:uid="{430FCF07-F4E3-4BBF-A630-7AC1644C5DB0}"/>
+    <hyperlink ref="H15" r:id="rId41" xr:uid="{BC2A2EA7-AAAB-4158-B22B-F4B0A506B5DD}"/>
+    <hyperlink ref="F16" r:id="rId42" display="mailto:checkuiissue@mailinator.com" xr:uid="{F86A9DAF-E84B-41B7-8644-EBDB5DF65D33}"/>
+    <hyperlink ref="H16" r:id="rId43" xr:uid="{FB47975C-2084-44AC-BE5F-83AB772AE5AF}"/>
+    <hyperlink ref="F17" r:id="rId44" display="mailto:checkuiissue@mailinator.com" xr:uid="{4DBC9A15-A787-4FE4-9B83-CED4EE73AA30}"/>
+    <hyperlink ref="H17" r:id="rId45" xr:uid="{E572E4BD-DB34-4A3A-9A16-9B6A6DF1139F}"/>
+    <hyperlink ref="F18" r:id="rId46" display="mailto:checkuiissue@mailinator.com" xr:uid="{4D2FF082-448B-4C8F-8CC4-ADA693F87E36}"/>
+    <hyperlink ref="H18" r:id="rId47" xr:uid="{84E5A160-0F0E-4EE0-803C-FA0EE02BF259}"/>
+    <hyperlink ref="F19" r:id="rId48" display="mailto:usertest1.0@mail.com" xr:uid="{C1088889-C727-4395-9EEF-35E7E28927ED}"/>
+    <hyperlink ref="F20" r:id="rId49" display="mailto:checkuiissue@mailinator.com" xr:uid="{FAA519E5-3ABB-4AC1-963F-2E56408F19A2}"/>
+    <hyperlink ref="H20" r:id="rId50" xr:uid="{631577DD-C9E3-490B-B74F-4F55671A3D81}"/>
+    <hyperlink ref="F21" r:id="rId51" display="mailto:checkuiissue@mailinator.com" xr:uid="{3BB6E720-AD44-4697-BC0D-8943351FA7CF}"/>
+    <hyperlink ref="H21" r:id="rId52" xr:uid="{0C3A0EB2-97B4-48D3-B332-7E0EBB97302C}"/>
+    <hyperlink ref="F24" r:id="rId53" xr:uid="{EC31840F-AC61-4809-A936-7AC0DD21A704}"/>
+    <hyperlink ref="P24" r:id="rId54" xr:uid="{0D89D4E1-0924-4EFC-A18C-65DAB6DBF61C}"/>
+    <hyperlink ref="H24" r:id="rId55" xr:uid="{6B8A2BF6-12E0-4570-B11F-0DC3B26B5396}"/>
+    <hyperlink ref="F27" r:id="rId56" display="mailto:sopune1@lpql.com" xr:uid="{8D32AE56-A30F-479C-951A-7BB0CA6FDDFB}"/>
+    <hyperlink ref="H28" r:id="rId57" display="mailto:testregistrationfeb7@mailinator.com" xr:uid="{F2805AF0-1DD2-4CA2-A7E0-CC361812AD42}"/>
+    <hyperlink ref="H27" r:id="rId58" display="mailto:testregistrationfeb7@mailinator.com" xr:uid="{19699DCD-E618-4E32-A3EA-91AC16AFC4C3}"/>
+    <hyperlink ref="P28" r:id="rId59" display="mailto:testregistrationfeb7@mailinator.com" xr:uid="{81CB4F06-846E-4AE6-A9E1-D0EF47163AAA}"/>
+    <hyperlink ref="O28" r:id="rId60" display="mailto:testregistrationfeb7@mailinator.com" xr:uid="{C8B1DB6F-A234-4C2C-B667-6408B2575442}"/>
+    <hyperlink ref="F29" r:id="rId61" display="mailto:sopune1@lpql.com" xr:uid="{2B66B0CF-0E57-40B5-B4E9-C693D55C3B82}"/>
+    <hyperlink ref="H29" r:id="rId62" xr:uid="{F40544FC-EB31-4D5B-858B-B6AE90EE3B49}"/>
+    <hyperlink ref="O29" r:id="rId63" display="mailto:newiqrtest5@mailinator.com" xr:uid="{076D2D09-781E-4644-8BA4-700F43E19968}"/>
+    <hyperlink ref="P29" r:id="rId64" display="mailto:newiqrtest5@mailinator.com" xr:uid="{DDF4BD56-4525-4000-A612-F77CEC4B9C04}"/>
+    <hyperlink ref="U53" r:id="rId65" display="mailto:checkuiissue@mailinator.com" xr:uid="{D6DB0F88-A91C-471B-A4CD-6E4EECC284B2}"/>
+    <hyperlink ref="U54" r:id="rId66" display="mailto:checkuiissue@mailinator.com" xr:uid="{B8EED6F7-16F4-435C-9DE5-6C6099FBF4A1}"/>
+    <hyperlink ref="U59" r:id="rId67" xr:uid="{BEA78A18-FB99-475B-8EA3-2308292E2421}"/>
+    <hyperlink ref="U57" r:id="rId68" xr:uid="{6292144E-759B-45D2-93AC-5035B449A015}"/>
+    <hyperlink ref="U55" r:id="rId69" display="mailto:uat_test13@mailinator.com" xr:uid="{F3AAAB3D-17FD-47F5-89EC-3BDF4F92EB81}"/>
+    <hyperlink ref="U56" r:id="rId70" xr:uid="{C132A1FF-2EEE-44DA-8169-9D5A4D747CC2}"/>
+    <hyperlink ref="Q49" r:id="rId71" xr:uid="{9B87B319-A7DD-47D0-8480-5ECD2C3A48C5}"/>
+    <hyperlink ref="Q51" r:id="rId72" xr:uid="{59BF5665-C47B-4A73-A660-ABDDE0F34E75}"/>
+    <hyperlink ref="Q52" r:id="rId73" xr:uid="{E5DBC6EB-349F-4961-B7DF-04561C3F5E3E}"/>
+    <hyperlink ref="Q50" r:id="rId74" xr:uid="{190F4848-8628-4D5B-B711-F8F712508406}"/>
+    <hyperlink ref="F49" r:id="rId75" xr:uid="{25E75C4E-E07C-497C-BF31-BD6F03B4B991}"/>
+    <hyperlink ref="F50" r:id="rId76" xr:uid="{B9B5A253-B610-41F9-806D-A9CAB210B22F}"/>
+    <hyperlink ref="F51" r:id="rId77" xr:uid="{39696D1A-3823-4534-8766-F92A5ECFDB5C}"/>
+    <hyperlink ref="F52" r:id="rId78" xr:uid="{A6B04B35-F722-4418-BF7F-146212EF88ED}"/>
+    <hyperlink ref="F31" r:id="rId79" display="mailto:sopune1@lpql.com" xr:uid="{B7A5A896-35C5-42FF-A75C-454FDD5588B8}"/>
+    <hyperlink ref="O31" r:id="rId80" xr:uid="{2439BEE5-A794-4FDB-8644-FE701C89F530}"/>
+    <hyperlink ref="H31" r:id="rId81" xr:uid="{C015A3EA-8C31-40B2-8007-A8F080A3F944}"/>
+    <hyperlink ref="F39" r:id="rId82" display="mailto:sopune1@lpql.com" xr:uid="{C97ED094-9FB1-4B1E-AECE-6AA3088DBB6E}"/>
+    <hyperlink ref="H39" r:id="rId83" xr:uid="{DFD3DB0B-8C98-4003-B6E3-2BBFEFC3FA5D}"/>
+    <hyperlink ref="O39" r:id="rId84" xr:uid="{C160D557-9DAC-4E2C-836F-9EB143F19FAB}"/>
+    <hyperlink ref="F32" r:id="rId85" display="mailto:sopune1@lpql.com" xr:uid="{2206A106-DBB5-49FD-9DC1-93524CC9145A}"/>
+    <hyperlink ref="H32" r:id="rId86" xr:uid="{1D2B7F72-29D9-4483-ABF7-A9EFA4026A62}"/>
+    <hyperlink ref="H33" r:id="rId87" display="mailto:sopune1@lpql.com" xr:uid="{1C09989C-9B4E-42CA-8656-9F1BB4521D11}"/>
+    <hyperlink ref="F33" r:id="rId88" display="mailto:sopune1@lpql.com" xr:uid="{56020AA2-84F3-4F38-8261-2BF72B608FA7}"/>
+    <hyperlink ref="F34" r:id="rId89" display="mailto:sopune1@lpql.com" xr:uid="{867DA4C9-FC8F-47B8-9B0D-9FC2CC18441D}"/>
+    <hyperlink ref="F35" r:id="rId90" display="mailto:sopune1@lpql.com" xr:uid="{1DADB6AF-CC74-4B99-8D5F-C7D381EE116A}"/>
+    <hyperlink ref="F36" r:id="rId91" display="mailto:sopune1@lpql.com" xr:uid="{2CA371A9-D6ED-4DAF-8D51-CCBBB069819F}"/>
+    <hyperlink ref="F37" r:id="rId92" display="mailto:sopune1@lpql.com" xr:uid="{48516F43-259F-4DF1-82DC-5CF4195415D2}"/>
+    <hyperlink ref="F38" r:id="rId93" display="mailto:sopune1@lpql.com" xr:uid="{32B0B388-38E7-41FF-BD08-EE7565704A94}"/>
+    <hyperlink ref="H34" r:id="rId94" xr:uid="{1CFA18CC-2474-49A2-BAE3-0AACFEAA2D2E}"/>
+    <hyperlink ref="H35" r:id="rId95" xr:uid="{3BD490B8-C114-4170-BC61-22C0843EE722}"/>
+    <hyperlink ref="H36" r:id="rId96" xr:uid="{B004ABFD-B1AF-4671-A0B8-0DCAD1BDE356}"/>
+    <hyperlink ref="H37" r:id="rId97" xr:uid="{7518695B-A91F-4DD5-BF0A-83839CA5969E}"/>
+    <hyperlink ref="H38" r:id="rId98" display="mailto:test_softo1@soft.com" xr:uid="{439182D6-D187-4205-AC89-8EB5CDFF9FB0}"/>
+    <hyperlink ref="O32" r:id="rId99" xr:uid="{0CC43591-D4D7-409C-BB67-19F64596EDE8}"/>
+    <hyperlink ref="O33" r:id="rId100" xr:uid="{111A39AD-807B-43E8-86C1-8B385313E45A}"/>
+    <hyperlink ref="O34" r:id="rId101" xr:uid="{BD840A01-3C1D-4D46-B8C6-B1F0DED8178F}"/>
+    <hyperlink ref="O35" r:id="rId102" xr:uid="{DD2E762E-7E5B-4058-B374-A1DF3459F96B}"/>
+    <hyperlink ref="O36" r:id="rId103" xr:uid="{D99469B5-31E9-42B9-845F-74692A5FAD27}"/>
+    <hyperlink ref="O37" r:id="rId104" xr:uid="{D3342EB0-CE9E-4C83-9B1D-A764F604C499}"/>
+    <hyperlink ref="O38" r:id="rId105" xr:uid="{D2CE000D-9BC7-485E-B47C-4EFC27068C81}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId95"/>
+  <pageSetup orientation="portrait" r:id="rId106"/>
 </worksheet>
 </file>